--- a/biology/Zoologie/Ficimia_variegata/Ficimia_variegata.xlsx
+++ b/biology/Zoologie/Ficimia_variegata/Ficimia_variegata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ficimia variegata est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ficimia variegata est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans les États de Campeche, de Chiapas, de Colima, d'Oaxaca et de Veracruz[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Mexique. Elle se rencontre dans les États de Campeche, de Chiapas, de Colima, d'Oaxaca et de Veracruz.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Günther indique que le spécimen en sa possession mesure environ 39 cm dont 7 cm pour la queue. Son dos est blanc rosé et présente une soixantaine de rayures transversales fines de couleur noire dont deux se trouvent au niveau de la nuque. Ses flancs sont tachetés de noir. Sa face ventrale est uniformément blanchâtre.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Günther indique que le spécimen en sa possession mesure environ 39 cm dont 7 cm pour la queue. Son dos est blanc rosé et présente une soixantaine de rayures transversales fines de couleur noire dont deux se trouvent au niveau de la nuque. Ses flancs sont tachetés de noir. Sa face ventrale est uniformément blanchâtre.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1858 : Catalogue of Colubrine Snakes in the Collection of the British Museum, London, p. 1-281 (texte intégral).</t>
         </is>
